--- a/gameData/shared/UnitsConfig.xlsx
+++ b/gameData/shared/UnitsConfig.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="0" windowWidth="37040" windowHeight="19760" tabRatio="119"/>
+    <workbookView xWindow="3460" yWindow="1120" windowWidth="25600" windowHeight="16060" tabRatio="529" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
   <si>
     <t>剑士</t>
   </si>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_population</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_wood</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -349,6 +345,14 @@
   </si>
   <si>
     <t>INT_treatTime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_citizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_citizen</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2563,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AC31" sqref="AC31"/>
+    <sheetView showRuler="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2610,45 +2614,45 @@
         <v>35</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="S1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2722,7 +2726,7 @@
     </row>
     <row r="3" spans="1:24" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -2796,7 +2800,7 @@
     </row>
     <row r="4" spans="1:24" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -2870,7 +2874,7 @@
     </row>
     <row r="5" spans="1:24" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -2944,7 +2948,7 @@
     </row>
     <row r="6" spans="1:24" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -3018,7 +3022,7 @@
     </row>
     <row r="7" spans="1:24" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
@@ -3092,7 +3096,7 @@
     </row>
     <row r="8" spans="1:24" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
@@ -3166,7 +3170,7 @@
     </row>
     <row r="9" spans="1:24" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -3240,7 +3244,7 @@
     </row>
     <row r="10" spans="1:24" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -3314,7 +3318,7 @@
     </row>
     <row r="11" spans="1:24" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -3388,7 +3392,7 @@
     </row>
     <row r="12" spans="1:24" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -3462,7 +3466,7 @@
     </row>
     <row r="13" spans="1:24" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -3536,7 +3540,7 @@
     </row>
     <row r="14" spans="1:24" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
@@ -3610,7 +3614,7 @@
     </row>
     <row r="15" spans="1:24" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
@@ -3684,7 +3688,7 @@
     </row>
     <row r="16" spans="1:24" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>4</v>
@@ -3758,7 +3762,7 @@
     </row>
     <row r="17" spans="1:24" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
@@ -3832,7 +3836,7 @@
     </row>
     <row r="18" spans="1:24" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -3906,7 +3910,7 @@
     </row>
     <row r="19" spans="1:24" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
@@ -3980,7 +3984,7 @@
     </row>
     <row r="20" spans="1:24" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
@@ -4054,7 +4058,7 @@
     </row>
     <row r="21" spans="1:24" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>6</v>
@@ -4128,7 +4132,7 @@
     </row>
     <row r="22" spans="1:24" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>6</v>
@@ -4202,7 +4206,7 @@
     </row>
     <row r="23" spans="1:24" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
@@ -4276,7 +4280,7 @@
     </row>
     <row r="24" spans="1:24" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
@@ -4350,7 +4354,7 @@
     </row>
     <row r="25" spans="1:24" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
@@ -4494,8 +4498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4514,10 +4518,10 @@
         <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>24</v>
@@ -4550,10 +4554,10 @@
         <v>36</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1">
@@ -4564,7 +4568,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -4614,7 +4618,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -4664,7 +4668,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -4714,7 +4718,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -4764,7 +4768,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -4814,7 +4818,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -4864,7 +4868,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -4914,7 +4918,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>

--- a/gameData/shared/UnitsConfig.xlsx
+++ b/gameData/shared/UnitsConfig.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="1120" windowWidth="25600" windowHeight="16060" tabRatio="529" activeTab="1"/>
+    <workbookView xWindow="2920" yWindow="2340" windowWidth="25600" windowHeight="16060" tabRatio="529"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -34,31 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
-  <si>
-    <t>剑士</t>
-  </si>
-  <si>
-    <t>哨兵</t>
-  </si>
-  <si>
-    <t>弓箭手</t>
-  </si>
-  <si>
-    <t>弩弓手</t>
-  </si>
-  <si>
-    <t>枪骑兵</t>
-  </si>
-  <si>
-    <t>弓骑兵</t>
-  </si>
-  <si>
-    <t>投石车</t>
-  </si>
-  <si>
-    <t>弩车</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>骷髅勇士</t>
   </si>
@@ -212,18 +188,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>archer_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>archer_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>archer_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>crossbowman_1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -308,10 +272,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_upkeep</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>deathHand,heroBones,soulStone</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -353,6 +313,68 @@
   </si>
   <si>
     <t>INT_citizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_category</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantry</t>
+  </si>
+  <si>
+    <t>infantry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archer</t>
+  </si>
+  <si>
+    <t>archer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siege</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_infantry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_cavalry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_siege</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_archer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_wall</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_consume</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +519,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="800">
+  <cellStyleXfs count="818">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -512,6 +534,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1318,7 +1358,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="800">
+  <cellStyles count="818">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1721,6 +1761,15 @@
     <cellStyle name="超链接" xfId="794" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="796" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="798" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="800" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="802" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="804" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="806" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="808" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="810" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="812" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="814" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="816" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2116,6 +2165,15 @@
     <cellStyle name="访问过的超链接" xfId="795" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="797" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="799" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="801" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="803" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="805" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="807" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="809" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="811" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="813" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="815" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="817" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2567,8 +2625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2578,84 +2636,84 @@
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -2726,10 +2784,10 @@
     </row>
     <row r="3" spans="1:24" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -2800,10 +2858,10 @@
     </row>
     <row r="4" spans="1:24" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -2874,10 +2932,10 @@
     </row>
     <row r="5" spans="1:24" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -2948,10 +3006,10 @@
     </row>
     <row r="6" spans="1:24" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -3022,10 +3080,10 @@
     </row>
     <row r="7" spans="1:24" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -3096,10 +3154,10 @@
     </row>
     <row r="8" spans="1:24" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -3170,10 +3228,10 @@
     </row>
     <row r="9" spans="1:24" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -3244,10 +3302,10 @@
     </row>
     <row r="10" spans="1:24" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -3318,10 +3376,10 @@
     </row>
     <row r="11" spans="1:24" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -3392,10 +3450,10 @@
     </row>
     <row r="12" spans="1:24" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -3466,10 +3524,10 @@
     </row>
     <row r="13" spans="1:24" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -3540,10 +3598,10 @@
     </row>
     <row r="14" spans="1:24" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -3614,10 +3672,10 @@
     </row>
     <row r="15" spans="1:24" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -3688,10 +3746,10 @@
     </row>
     <row r="16" spans="1:24" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -3762,10 +3820,10 @@
     </row>
     <row r="17" spans="1:24" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -3836,10 +3894,10 @@
     </row>
     <row r="18" spans="1:24" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -3910,10 +3968,10 @@
     </row>
     <row r="19" spans="1:24" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -3984,10 +4042,10 @@
     </row>
     <row r="20" spans="1:24" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -4058,10 +4116,10 @@
     </row>
     <row r="21" spans="1:24" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -4132,10 +4190,10 @@
     </row>
     <row r="22" spans="1:24" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -4206,10 +4264,10 @@
     </row>
     <row r="23" spans="1:24" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -4280,10 +4338,10 @@
     </row>
     <row r="24" spans="1:24" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -4354,10 +4412,10 @@
     </row>
     <row r="25" spans="1:24" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
@@ -4498,7 +4556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -4512,63 +4570,63 @@
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -4612,13 +4670,13 @@
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -4662,13 +4720,13 @@
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -4712,13 +4770,13 @@
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -4762,13 +4820,13 @@
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -4812,13 +4870,13 @@
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -4862,13 +4920,13 @@
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -4912,13 +4970,13 @@
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>

--- a/gameData/shared/UnitsConfig.xlsx
+++ b/gameData/shared/UnitsConfig.xlsx
@@ -4,22 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="2340" windowWidth="25600" windowHeight="16060" tabRatio="529"/>
+    <workbookView xWindow="5420" yWindow="1800" windowWidth="25600" windowHeight="16060" tabRatio="529"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
     <sheet name="special" sheetId="33" r:id="rId2"/>
+    <sheet name="fightFix" sheetId="48" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t>骷髅勇士</t>
   </si>
@@ -108,26 +113,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>INT_atkInfs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_atkCavalry</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_atkHunter</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_atkSiege</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_atkWall</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_hp</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -140,10 +125,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_upkeep</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_wood</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -328,10 +309,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>STR_category</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>infantry</t>
   </si>
   <si>
@@ -354,27 +331,51 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>INT_cavalry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_siege</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_wall</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_name</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>INT_infantry</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_cavalry</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_siege</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_archer</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_wall</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_consume</t>
+    <t>FLOAT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_multipleMin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_multipleMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_consumeFood</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +520,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="818">
+  <cellStyleXfs count="898">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -534,6 +535,86 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1358,7 +1439,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="818">
+  <cellStyles count="898">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1770,6 +1851,46 @@
     <cellStyle name="超链接" xfId="812" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="814" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="816" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="818" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="820" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="822" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="824" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="826" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="828" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="830" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="832" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="834" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="836" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="838" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="840" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="842" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="844" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="846" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="848" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="850" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="852" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="854" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="856" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="858" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="860" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="862" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="864" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="866" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="868" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="870" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="872" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="874" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="876" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="878" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="880" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="882" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="884" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="886" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="888" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="890" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="892" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="894" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="896" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2174,6 +2295,46 @@
     <cellStyle name="访问过的超链接" xfId="813" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="815" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="817" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="819" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="821" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="823" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="825" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="827" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="829" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="831" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="833" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="835" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="837" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="839" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="841" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="843" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="845" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="847" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="849" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="851" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="853" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="855" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="857" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="859" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="861" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="863" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="865" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="867" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="869" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="871" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="873" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="875" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="877" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="879" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="881" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="883" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="885" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="887" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="889" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="891" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="893" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="895" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="897" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2625,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2636,10 +2797,10 @@
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>19</v>
@@ -2648,72 +2809,72 @@
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -2784,10 +2945,10 @@
     </row>
     <row r="3" spans="1:24" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -2858,10 +3019,10 @@
     </row>
     <row r="4" spans="1:24" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -2932,10 +3093,10 @@
     </row>
     <row r="5" spans="1:24" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -3006,10 +3167,10 @@
     </row>
     <row r="6" spans="1:24" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -3080,10 +3241,10 @@
     </row>
     <row r="7" spans="1:24" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -3154,10 +3315,10 @@
     </row>
     <row r="8" spans="1:24" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -3228,10 +3389,10 @@
     </row>
     <row r="9" spans="1:24" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -3302,10 +3463,10 @@
     </row>
     <row r="10" spans="1:24" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -3376,10 +3537,10 @@
     </row>
     <row r="11" spans="1:24" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -3450,10 +3611,10 @@
     </row>
     <row r="12" spans="1:24" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -3524,10 +3685,10 @@
     </row>
     <row r="13" spans="1:24" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -3598,10 +3759,10 @@
     </row>
     <row r="14" spans="1:24" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -3672,10 +3833,10 @@
     </row>
     <row r="15" spans="1:24" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -3746,10 +3907,10 @@
     </row>
     <row r="16" spans="1:24" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -3820,10 +3981,10 @@
     </row>
     <row r="17" spans="1:24" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -3894,10 +4055,10 @@
     </row>
     <row r="18" spans="1:24" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -3968,10 +4129,10 @@
     </row>
     <row r="19" spans="1:24" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -4042,10 +4203,10 @@
     </row>
     <row r="20" spans="1:24" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -4116,10 +4277,10 @@
     </row>
     <row r="21" spans="1:24" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -4190,10 +4351,10 @@
     </row>
     <row r="22" spans="1:24" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -4264,10 +4425,10 @@
     </row>
     <row r="23" spans="1:24" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -4338,10 +4499,10 @@
     </row>
     <row r="24" spans="1:24" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -4412,10 +4573,10 @@
     </row>
     <row r="25" spans="1:24" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
@@ -4556,8 +4717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4576,46 +4737,46 @@
         <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1">
@@ -4626,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -4676,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -4726,7 +4887,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -4776,7 +4937,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -4826,7 +4987,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -4876,7 +5037,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -4926,7 +5087,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -4976,7 +5137,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -5016,6 +5177,202 @@
       </c>
       <c r="P9" s="1">
         <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" style="1" customWidth="1"/>
+    <col min="4" max="10" width="17" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/UnitsConfig.xlsx
+++ b/gameData/shared/UnitsConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="1800" windowWidth="25600" windowHeight="16060" tabRatio="529"/>
+    <workbookView xWindow="10460" yWindow="1860" windowWidth="25600" windowHeight="16060" tabRatio="529" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -39,31 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
-  <si>
-    <t>骷髅勇士</t>
-  </si>
-  <si>
-    <t>骷髅射手</t>
-  </si>
-  <si>
-    <t>死亡骑士</t>
-  </si>
-  <si>
-    <t>绞肉机</t>
-  </si>
-  <si>
-    <t>牧师</t>
-  </si>
-  <si>
-    <t>猎魔人</t>
-  </si>
-  <si>
-    <t>圣骑士</t>
-  </si>
-  <si>
-    <t>蒸汽坦克</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
   <si>
     <t>skeletonWarrior</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -98,14 +74,6 @@
   </si>
   <si>
     <t>INT_power</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_type</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_description</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -520,7 +488,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="898">
+  <cellStyleXfs count="912">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -535,6 +503,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1439,7 +1421,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="898">
+  <cellStyles count="912">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1891,6 +1873,13 @@
     <cellStyle name="超链接" xfId="892" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="894" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="896" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="898" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="900" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="902" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="904" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="906" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="908" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="910" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2335,6 +2324,13 @@
     <cellStyle name="访问过的超链接" xfId="893" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="895" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="897" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="899" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="901" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="903" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="905" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="907" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="909" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="911" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2786,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2797,84 +2793,84 @@
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -2945,10 +2941,10 @@
     </row>
     <row r="3" spans="1:24" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -3019,10 +3015,10 @@
     </row>
     <row r="4" spans="1:24" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -3093,10 +3089,10 @@
     </row>
     <row r="5" spans="1:24" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -3167,10 +3163,10 @@
     </row>
     <row r="6" spans="1:24" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -3241,10 +3237,10 @@
     </row>
     <row r="7" spans="1:24" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -3315,10 +3311,10 @@
     </row>
     <row r="8" spans="1:24" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -3389,10 +3385,10 @@
     </row>
     <row r="9" spans="1:24" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -3463,10 +3459,10 @@
     </row>
     <row r="10" spans="1:24" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -3537,10 +3533,10 @@
     </row>
     <row r="11" spans="1:24" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -3611,10 +3607,10 @@
     </row>
     <row r="12" spans="1:24" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -3685,10 +3681,10 @@
     </row>
     <row r="13" spans="1:24" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -3759,10 +3755,10 @@
     </row>
     <row r="14" spans="1:24" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -3833,10 +3829,10 @@
     </row>
     <row r="15" spans="1:24" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -3907,10 +3903,10 @@
     </row>
     <row r="16" spans="1:24" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -3981,10 +3977,10 @@
     </row>
     <row r="17" spans="1:24" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -4055,10 +4051,10 @@
     </row>
     <row r="18" spans="1:24" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -4129,10 +4125,10 @@
     </row>
     <row r="19" spans="1:24" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -4203,10 +4199,10 @@
     </row>
     <row r="20" spans="1:24" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -4277,10 +4273,10 @@
     </row>
     <row r="21" spans="1:24" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -4351,10 +4347,10 @@
     </row>
     <row r="22" spans="1:24" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -4425,10 +4421,10 @@
     </row>
     <row r="23" spans="1:24" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -4499,10 +4495,10 @@
     </row>
     <row r="24" spans="1:24" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -4573,10 +4569,10 @@
     </row>
     <row r="25" spans="1:24" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
@@ -4717,13 +4713,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="17" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1"/>
     <col min="3" max="3" width="36.1640625" style="1" customWidth="1"/>
     <col min="4" max="15" width="17" style="1" customWidth="1"/>
     <col min="16" max="16384" width="20.6640625" style="1"/>
@@ -4731,63 +4728,63 @@
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -4831,13 +4828,13 @@
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -4881,13 +4878,13 @@
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -4931,13 +4928,13 @@
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -4981,13 +4978,13 @@
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -5031,13 +5028,13 @@
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -5081,13 +5078,13 @@
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -5131,13 +5128,13 @@
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -5195,8 +5192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5209,16 +5206,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">

--- a/gameData/shared/UnitsConfig.xlsx
+++ b/gameData/shared/UnitsConfig.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10460" yWindow="1860" windowWidth="25600" windowHeight="16060" tabRatio="529" activeTab="1"/>
+    <workbookView xWindow="11220" yWindow="1960" windowWidth="25600" windowHeight="16060" tabRatio="529" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
     <sheet name="special" sheetId="33" r:id="rId2"/>
-    <sheet name="fightFix" sheetId="48" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -39,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
   <si>
     <t>skeletonWarrior</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -324,22 +319,6 @@
   </si>
   <si>
     <t>INT_archer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_multipleMin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_multipleMax</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_index</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2829,7 +2808,7 @@
         <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>54</v>
@@ -4714,7 +4693,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4767,7 +4746,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>55</v>
@@ -5174,202 +5153,6 @@
       </c>
       <c r="P9" s="1">
         <v>280</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" style="1" customWidth="1"/>
-    <col min="4" max="10" width="17" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/UnitsConfig.xlsx
+++ b/gameData/shared/UnitsConfig.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="1960" windowWidth="25600" windowHeight="16060" tabRatio="529" activeTab="1"/>
+    <workbookView xWindow="11220" yWindow="1960" windowWidth="25600" windowHeight="16060" tabRatio="529"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
   <si>
     <t>skeletonWarrior</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -323,6 +323,42 @@
   </si>
   <si>
     <t>INT_consumeFood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_key</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +503,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="912">
+  <cellStyleXfs count="926">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -482,6 +518,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1400,7 +1450,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="912">
+  <cellStyles count="926">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1859,6 +1909,13 @@
     <cellStyle name="超链接" xfId="906" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="908" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="910" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="912" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="914" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="916" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="918" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="920" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="922" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="924" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2310,6 +2367,13 @@
     <cellStyle name="访问过的超链接" xfId="907" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="909" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="911" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="913" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="915" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="917" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="919" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="921" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="923" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="925" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2759,10 +2823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2770,1681 +2834,1747 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="20" customHeight="1">
+    <row r="2" spans="1:25" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>6</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>30</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>24</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>15</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>45</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>36</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>40</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>20</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>60</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>10</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>1</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>0</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>500</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>300</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>200</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>30</v>
       </c>
-      <c r="T2" s="3">
+      <c r="U2" s="3">
         <v>0</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>167</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>100</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>67</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="20" customHeight="1">
+    <row r="3" spans="1:25" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>9</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>36</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>29</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>18</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>54</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>44</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>48</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>34</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>60</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>17</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>1</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>0</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>850</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>510</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>340</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>30</v>
       </c>
-      <c r="T3" s="3">
+      <c r="U3" s="3">
         <v>0</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>284</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>170</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <v>114</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="20" customHeight="1">
+    <row r="4" spans="1:25" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>12</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>42</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>34</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>21</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>63</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>51</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>56</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>48</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>60</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>24</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>1</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>0</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>1200</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>720</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>480</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>30</v>
       </c>
-      <c r="T4" s="3">
+      <c r="U4" s="3">
         <v>0</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>400</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>240</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>160</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="20" customHeight="1">
+    <row r="5" spans="1:25" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>8</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>27</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>14</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>22</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>32</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>40</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>55</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>22</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>55</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>11</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>1</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>440</v>
       </c>
       <c r="Q5" s="1">
         <v>440</v>
       </c>
       <c r="R5" s="1">
+        <v>440</v>
+      </c>
+      <c r="S5" s="1">
         <v>220</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>35</v>
       </c>
-      <c r="T5" s="3">
+      <c r="U5" s="3">
         <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>147</v>
       </c>
       <c r="V5" s="1">
         <v>147</v>
       </c>
       <c r="W5" s="1">
+        <v>147</v>
+      </c>
+      <c r="X5" s="1">
         <v>74</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Y5" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="20" customHeight="1">
+    <row r="6" spans="1:25" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>11</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>32</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>16</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>26</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>39</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>48</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>66</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>38</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>55</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>19</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>1</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>748</v>
       </c>
       <c r="Q6" s="1">
         <v>748</v>
       </c>
       <c r="R6" s="1">
+        <v>748</v>
+      </c>
+      <c r="S6" s="1">
         <v>374</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>35</v>
       </c>
-      <c r="T6" s="3">
+      <c r="U6" s="3">
         <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>250</v>
       </c>
       <c r="V6" s="1">
         <v>250</v>
       </c>
       <c r="W6" s="1">
+        <v>250</v>
+      </c>
+      <c r="X6" s="1">
         <v>125</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="20" customHeight="1">
+    <row r="7" spans="1:25" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>15</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>37</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>19</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>30</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>45</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>56</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>77</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>53</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>55</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>27</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>1</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1056</v>
       </c>
       <c r="Q7" s="1">
         <v>1056</v>
       </c>
       <c r="R7" s="1">
+        <v>1056</v>
+      </c>
+      <c r="S7" s="1">
         <v>528</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>35</v>
       </c>
-      <c r="T7" s="3">
+      <c r="U7" s="3">
         <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>352</v>
       </c>
       <c r="V7" s="1">
         <v>352</v>
       </c>
       <c r="W7" s="1">
+        <v>352</v>
+      </c>
+      <c r="X7" s="1">
         <v>176</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Y7" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="20" customHeight="1">
+    <row r="8" spans="1:25" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>7</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>79</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>53</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>63</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>27</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>42</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>64</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>1</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>525</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>315</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>210</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>50</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>175</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <v>105</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <v>0</v>
       </c>
-      <c r="W8" s="1">
+      <c r="X8" s="1">
         <v>70</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="20" customHeight="1">
+    <row r="9" spans="1:25" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>95</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>63</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>76</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>32</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>51</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>31</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>64</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>1</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>893</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>536</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>357</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>50</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>298</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V9" s="1">
         <v>179</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W9" s="1">
         <v>0</v>
       </c>
-      <c r="W9" s="1">
+      <c r="X9" s="1">
         <v>119</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="20" customHeight="1">
+    <row r="10" spans="1:25" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>13</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>111</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>74</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>89</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>37</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>59</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>36</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>64</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>1</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1260</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>756</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>504</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>50</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>420</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <v>252</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>0</v>
       </c>
-      <c r="W10" s="1">
+      <c r="X10" s="1">
         <v>168</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Y10" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="20" customHeight="1">
+    <row r="11" spans="1:25" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>7</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>79</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>53</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>63</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>27</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>42</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>26</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>11</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>64</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>11</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>1</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>525</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>315</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>0</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <v>210</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>55</v>
       </c>
-      <c r="T11" s="3">
+      <c r="U11" s="3">
         <v>175</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <v>105</v>
       </c>
-      <c r="V11" s="1">
+      <c r="W11" s="1">
         <v>0</v>
       </c>
-      <c r="W11" s="1">
+      <c r="X11" s="1">
         <v>70</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Y11" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="20" customHeight="1">
+    <row r="12" spans="1:25" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>95</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>63</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>76</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>32</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>51</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>31</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>18</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>64</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>18</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>1</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>893</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>536</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>0</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <v>357</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <v>55</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>298</v>
       </c>
-      <c r="U12" s="1">
+      <c r="V12" s="1">
         <v>179</v>
       </c>
-      <c r="V12" s="1">
+      <c r="W12" s="1">
         <v>0</v>
       </c>
-      <c r="W12" s="1">
+      <c r="X12" s="1">
         <v>119</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Y12" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="20" customHeight="1">
+    <row r="13" spans="1:25" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>13</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>111</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>74</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>89</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>37</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>59</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>36</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>26</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>64</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>26</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>1</v>
       </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
         <v>1260</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>756</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>0</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S13" s="1">
         <v>504</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>55</v>
       </c>
-      <c r="T13" s="3">
+      <c r="U13" s="3">
         <v>420</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <v>252</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <v>0</v>
       </c>
-      <c r="W13" s="1">
+      <c r="X13" s="1">
         <v>168</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="20" customHeight="1">
+    <row r="14" spans="1:25" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>12</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>90</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>30</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>60</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>72</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>48</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>80</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>20</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>92</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>20</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>2</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>600</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <v>0</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>1000</v>
       </c>
-      <c r="R14" s="1">
+      <c r="S14" s="1">
         <v>400</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <v>110</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="1">
+      <c r="V14" s="1">
         <v>0</v>
       </c>
-      <c r="V14" s="1">
+      <c r="W14" s="1">
         <v>334</v>
       </c>
-      <c r="W14" s="1">
+      <c r="X14" s="1">
         <v>134</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Y14" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="20" customHeight="1">
+    <row r="15" spans="1:25" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>18</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>108</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>36</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>72</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>87</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>58</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>96</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>34</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>92</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>34</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>2</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1020</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>0</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <v>1700</v>
       </c>
-      <c r="R15" s="1">
+      <c r="S15" s="1">
         <v>680</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <v>110</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>340</v>
       </c>
-      <c r="U15" s="1">
+      <c r="V15" s="1">
         <v>0</v>
       </c>
-      <c r="V15" s="1">
+      <c r="W15" s="1">
         <v>567</v>
       </c>
-      <c r="W15" s="1">
+      <c r="X15" s="1">
         <v>227</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Y15" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="20" customHeight="1">
+    <row r="16" spans="1:25" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>24</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>126</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>42</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>84</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>101</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>68</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>112</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <v>48</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>92</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <v>48</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>2</v>
       </c>
-      <c r="O16" s="3">
+      <c r="P16" s="3">
         <v>1440</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <v>0</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <v>2400</v>
       </c>
-      <c r="R16" s="1">
+      <c r="S16" s="1">
         <v>960</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <v>110</v>
       </c>
-      <c r="T16" s="3">
+      <c r="U16" s="3">
         <v>480</v>
       </c>
-      <c r="U16" s="1">
+      <c r="V16" s="1">
         <v>0</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <v>800</v>
       </c>
-      <c r="W16" s="1">
+      <c r="X16" s="1">
         <v>320</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Y16" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="20" customHeight="1">
+    <row r="17" spans="1:25" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>15</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>106</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>71</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>88</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>132</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>44</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>66</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>86</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>2</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>880</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>0</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>880</v>
       </c>
-      <c r="R17" s="1">
+      <c r="S17" s="1">
         <v>440</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <v>120</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>294</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="1">
         <v>0</v>
       </c>
-      <c r="V17" s="1">
+      <c r="W17" s="1">
         <v>294</v>
       </c>
-      <c r="W17" s="1">
+      <c r="X17" s="1">
         <v>147</v>
       </c>
-      <c r="X17" s="1">
+      <c r="Y17" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="20" customHeight="1">
+    <row r="18" spans="1:25" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
         <v>21</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>127</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>85</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>106</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>159</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>53</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>80</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>86</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>38</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>2</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1496</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <v>0</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <v>1496</v>
       </c>
-      <c r="R18" s="1">
+      <c r="S18" s="1">
         <v>748</v>
       </c>
-      <c r="S18" s="1">
+      <c r="T18" s="1">
         <v>120</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>499</v>
       </c>
-      <c r="U18" s="1">
+      <c r="V18" s="1">
         <v>0</v>
       </c>
-      <c r="V18" s="1">
+      <c r="W18" s="1">
         <v>499</v>
       </c>
-      <c r="W18" s="1">
+      <c r="X18" s="1">
         <v>250</v>
       </c>
-      <c r="X18" s="1">
+      <c r="Y18" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="20" customHeight="1">
+    <row r="19" spans="1:25" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>3</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <v>29</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>148</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>99</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>124</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>185</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <v>62</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <v>93</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <v>53</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>86</v>
       </c>
-      <c r="M19" s="3">
+      <c r="N19" s="3">
         <v>53</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>2</v>
       </c>
-      <c r="O19" s="3">
+      <c r="P19" s="3">
         <v>2112</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <v>0</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <v>2112</v>
       </c>
-      <c r="R19" s="1">
+      <c r="S19" s="1">
         <v>1056</v>
       </c>
-      <c r="S19" s="1">
+      <c r="T19" s="1">
         <v>120</v>
       </c>
-      <c r="T19" s="3">
+      <c r="U19" s="3">
         <v>704</v>
       </c>
-      <c r="U19" s="1">
+      <c r="V19" s="1">
         <v>0</v>
       </c>
-      <c r="V19" s="1">
+      <c r="W19" s="1">
         <v>704</v>
       </c>
-      <c r="W19" s="1">
+      <c r="X19" s="1">
         <v>352</v>
       </c>
-      <c r="X19" s="1">
+      <c r="Y19" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="20" customHeight="1">
+    <row r="20" spans="1:25" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>24</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>160</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>240</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>96</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>40</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>58</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>40</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <v>1200</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <v>400</v>
       </c>
-      <c r="R20" s="1">
+      <c r="S20" s="1">
         <v>800</v>
       </c>
-      <c r="S20" s="1">
+      <c r="T20" s="1">
         <v>180</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="1">
+      <c r="V20" s="1">
         <v>400</v>
       </c>
-      <c r="V20" s="1">
+      <c r="W20" s="1">
         <v>134</v>
       </c>
-      <c r="W20" s="1">
+      <c r="X20" s="1">
         <v>267</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Y20" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="20" customHeight="1">
+    <row r="21" spans="1:25" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>35</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>192</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>288</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>120</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>240</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>360</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>116</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>68</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>58</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>68</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2040</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <v>2040</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <v>680</v>
       </c>
-      <c r="R21" s="1">
+      <c r="S21" s="1">
         <v>1360</v>
       </c>
-      <c r="S21" s="1">
+      <c r="T21" s="1">
         <v>180</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>680</v>
       </c>
-      <c r="U21" s="1">
+      <c r="V21" s="1">
         <v>680</v>
       </c>
-      <c r="V21" s="1">
+      <c r="W21" s="1">
         <v>227</v>
       </c>
-      <c r="W21" s="1">
+      <c r="X21" s="1">
         <v>454</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Y21" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="20" customHeight="1">
+    <row r="22" spans="1:25" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>3</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>48</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>224</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>336</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>140</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>280</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>420</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>135</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>96</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>58</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>96</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2880</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <v>2880</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R22" s="1">
         <v>960</v>
       </c>
-      <c r="R22" s="1">
+      <c r="S22" s="1">
         <v>1920</v>
       </c>
-      <c r="S22" s="1">
+      <c r="T22" s="1">
         <v>180</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>960</v>
       </c>
-      <c r="U22" s="1">
+      <c r="V22" s="1">
         <v>960</v>
       </c>
-      <c r="V22" s="1">
+      <c r="W22" s="1">
         <v>320</v>
       </c>
-      <c r="W22" s="1">
+      <c r="X22" s="1">
         <v>640</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Y22" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="20" customHeight="1">
+    <row r="23" spans="1:25" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>30</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>88</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>264</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>141</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>176</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>212</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>132</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>44</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>55</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>4</v>
       </c>
-      <c r="O23" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P23" s="1">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
       <c r="Q23" s="1">
@@ -4454,12 +4584,12 @@
         <v>1100</v>
       </c>
       <c r="S23" s="1">
+        <v>1100</v>
+      </c>
+      <c r="T23" s="1">
         <v>190</v>
       </c>
-      <c r="T23" s="3">
-        <v>367</v>
-      </c>
-      <c r="U23" s="1">
+      <c r="U23" s="3">
         <v>367</v>
       </c>
       <c r="V23" s="1">
@@ -4469,56 +4599,59 @@
         <v>367</v>
       </c>
       <c r="X23" s="1">
+        <v>367</v>
+      </c>
+      <c r="Y23" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="20" customHeight="1">
+    <row r="24" spans="1:25" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>42</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>106</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>317</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>169</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>212</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>254</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>159</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>75</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>55</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>75</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
-        <v>1870</v>
-      </c>
-      <c r="P24" s="1">
+      <c r="P24" s="3">
         <v>1870</v>
       </c>
       <c r="Q24" s="1">
@@ -4528,12 +4661,12 @@
         <v>1870</v>
       </c>
       <c r="S24" s="1">
+        <v>1870</v>
+      </c>
+      <c r="T24" s="1">
         <v>190</v>
       </c>
-      <c r="T24" s="3">
-        <v>624</v>
-      </c>
-      <c r="U24" s="1">
+      <c r="U24" s="3">
         <v>624</v>
       </c>
       <c r="V24" s="1">
@@ -4543,56 +4676,59 @@
         <v>624</v>
       </c>
       <c r="X24" s="1">
+        <v>624</v>
+      </c>
+      <c r="Y24" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="20" customHeight="1">
+    <row r="25" spans="1:25" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>3</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>57</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>124</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>370</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>198</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>247</v>
       </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
         <v>296</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <v>185</v>
       </c>
-      <c r="K25" s="3">
+      <c r="L25" s="3">
         <v>106</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>55</v>
       </c>
-      <c r="M25" s="3">
+      <c r="N25" s="3">
         <v>106</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="1">
         <v>4</v>
       </c>
-      <c r="O25" s="3">
-        <v>2640</v>
-      </c>
-      <c r="P25" s="1">
+      <c r="P25" s="3">
         <v>2640</v>
       </c>
       <c r="Q25" s="1">
@@ -4602,12 +4738,12 @@
         <v>2640</v>
       </c>
       <c r="S25" s="1">
+        <v>2640</v>
+      </c>
+      <c r="T25" s="1">
         <v>190</v>
       </c>
-      <c r="T25" s="3">
-        <v>880</v>
-      </c>
-      <c r="U25" s="1">
+      <c r="U25" s="3">
         <v>880</v>
       </c>
       <c r="V25" s="1">
@@ -4617,64 +4753,75 @@
         <v>880</v>
       </c>
       <c r="X25" s="1">
+        <v>880</v>
+      </c>
+      <c r="Y25" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="20" customHeight="1">
+    <row r="26" spans="1:25" ht="20" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:24" ht="20" customHeight="1">
+    <row r="27" spans="1:25" ht="20" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:24" ht="20" customHeight="1">
+    <row r="28" spans="1:25" ht="20" customHeight="1">
       <c r="A28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:24" ht="20" customHeight="1">
+    <row r="29" spans="1:25" ht="20" customHeight="1">
       <c r="A29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:24" ht="20" customHeight="1">
+    <row r="30" spans="1:25" ht="20" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:24" ht="20" customHeight="1">
+    <row r="31" spans="1:25" ht="20" customHeight="1">
       <c r="A31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:24" ht="20" customHeight="1">
+    <row r="32" spans="1:25" ht="20" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1">
+    <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4692,7 +4839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/UnitsConfig.xlsx
+++ b/gameData/shared/UnitsConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="1960" windowWidth="25600" windowHeight="16060" tabRatio="529"/>
+    <workbookView xWindow="6460" yWindow="3200" windowWidth="25600" windowHeight="16060" tabRatio="529"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
   <si>
     <t>skeletonWarrior</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -359,6 +359,18 @@
   </si>
   <si>
     <t>ballista</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_upgradeCoinNeed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_upgradeTimeSecondsNeed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_upgradeTechPointNeed</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -502,8 +514,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="926">
+  <cellStyleXfs count="946">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1434,8 +1459,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1449,8 +1494,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="926">
+  <cellStyles count="946">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1916,6 +1964,16 @@
     <cellStyle name="超链接" xfId="920" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="922" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="924" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="926" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="928" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="930" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="932" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="934" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="936" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="938" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="940" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="942" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="944" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2374,6 +2432,16 @@
     <cellStyle name="访问过的超链接" xfId="921" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="923" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="925" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="927" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="929" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="931" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="933" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="935" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="937" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="939" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="941" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="943" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="945" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2823,10 +2891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2834,7 +2902,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
@@ -2910,8 +2978,17 @@
       <c r="Y1" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="Z1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" ht="20" customHeight="1">
+    <row r="2" spans="1:28" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2987,8 +3064,17 @@
       <c r="Y2" s="1">
         <v>10</v>
       </c>
+      <c r="Z2" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" ht="20" customHeight="1">
+    <row r="3" spans="1:28" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -3064,8 +3150,17 @@
       <c r="Y3" s="1">
         <v>10</v>
       </c>
+      <c r="Z3" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" ht="20" customHeight="1">
+    <row r="4" spans="1:28" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -3141,8 +3236,17 @@
       <c r="Y4" s="1">
         <v>10</v>
       </c>
+      <c r="Z4" s="5">
+        <v>200</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>200</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>200</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" ht="20" customHeight="1">
+    <row r="5" spans="1:28" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3218,8 +3322,17 @@
       <c r="Y5" s="1">
         <v>12</v>
       </c>
+      <c r="Z5" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" ht="20" customHeight="1">
+    <row r="6" spans="1:28" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3295,8 +3408,17 @@
       <c r="Y6" s="1">
         <v>12</v>
       </c>
+      <c r="Z6" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" ht="20" customHeight="1">
+    <row r="7" spans="1:28" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -3372,8 +3494,17 @@
       <c r="Y7" s="1">
         <v>12</v>
       </c>
+      <c r="Z7" s="5">
+        <v>200</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>200</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>200</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" ht="20" customHeight="1">
+    <row r="8" spans="1:28" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -3449,8 +3580,17 @@
       <c r="Y8" s="1">
         <v>17</v>
       </c>
+      <c r="Z8" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" ht="20" customHeight="1">
+    <row r="9" spans="1:28" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -3526,8 +3666,17 @@
       <c r="Y9" s="1">
         <v>17</v>
       </c>
+      <c r="Z9" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" ht="20" customHeight="1">
+    <row r="10" spans="1:28" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -3603,8 +3752,17 @@
       <c r="Y10" s="1">
         <v>17</v>
       </c>
+      <c r="Z10" s="5">
+        <v>200</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>200</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>200</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" ht="20" customHeight="1">
+    <row r="11" spans="1:28" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -3680,8 +3838,17 @@
       <c r="Y11" s="1">
         <v>19</v>
       </c>
+      <c r="Z11" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" ht="20" customHeight="1">
+    <row r="12" spans="1:28" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -3757,8 +3924,17 @@
       <c r="Y12" s="1">
         <v>19</v>
       </c>
+      <c r="Z12" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" ht="20" customHeight="1">
+    <row r="13" spans="1:28" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -3834,8 +4010,17 @@
       <c r="Y13" s="1">
         <v>19</v>
       </c>
+      <c r="Z13" s="5">
+        <v>200</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>200</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>200</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" ht="20" customHeight="1">
+    <row r="14" spans="1:28" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -3911,8 +4096,17 @@
       <c r="Y14" s="1">
         <v>37</v>
       </c>
+      <c r="Z14" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" ht="20" customHeight="1">
+    <row r="15" spans="1:28" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -3988,8 +4182,17 @@
       <c r="Y15" s="1">
         <v>37</v>
       </c>
+      <c r="Z15" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" ht="20" customHeight="1">
+    <row r="16" spans="1:28" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -4065,8 +4268,17 @@
       <c r="Y16" s="1">
         <v>37</v>
       </c>
+      <c r="Z16" s="5">
+        <v>200</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>200</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>200</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" ht="20" customHeight="1">
+    <row r="17" spans="1:28" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -4142,8 +4354,17 @@
       <c r="Y17" s="1">
         <v>40</v>
       </c>
+      <c r="Z17" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" ht="20" customHeight="1">
+    <row r="18" spans="1:28" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -4219,8 +4440,17 @@
       <c r="Y18" s="1">
         <v>40</v>
       </c>
+      <c r="Z18" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" ht="20" customHeight="1">
+    <row r="19" spans="1:28" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -4296,8 +4526,17 @@
       <c r="Y19" s="1">
         <v>40</v>
       </c>
+      <c r="Z19" s="5">
+        <v>200</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>200</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>200</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" ht="20" customHeight="1">
+    <row r="20" spans="1:28" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -4373,8 +4612,17 @@
       <c r="Y20" s="1">
         <v>60</v>
       </c>
+      <c r="Z20" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" ht="20" customHeight="1">
+    <row r="21" spans="1:28" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -4450,8 +4698,17 @@
       <c r="Y21" s="1">
         <v>60</v>
       </c>
+      <c r="Z21" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" ht="20" customHeight="1">
+    <row r="22" spans="1:28" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -4527,8 +4784,17 @@
       <c r="Y22" s="1">
         <v>60</v>
       </c>
+      <c r="Z22" s="5">
+        <v>200</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>200</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>200</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" ht="20" customHeight="1">
+    <row r="23" spans="1:28" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -4604,8 +4870,17 @@
       <c r="Y23" s="1">
         <v>64</v>
       </c>
+      <c r="Z23" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" ht="20" customHeight="1">
+    <row r="24" spans="1:28" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -4681,8 +4956,17 @@
       <c r="Y24" s="1">
         <v>64</v>
       </c>
+      <c r="Z24" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" ht="20" customHeight="1">
+    <row r="25" spans="1:28" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -4758,8 +5042,17 @@
       <c r="Y25" s="1">
         <v>64</v>
       </c>
+      <c r="Z25" s="5">
+        <v>200</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>200</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>200</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" ht="20" customHeight="1">
+    <row r="26" spans="1:28" ht="20" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="D26" s="4"/>
@@ -4767,7 +5060,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:25" ht="20" customHeight="1">
+    <row r="27" spans="1:28" ht="20" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="D27" s="4"/>
@@ -4775,7 +5068,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:25" ht="20" customHeight="1">
+    <row r="28" spans="1:28" ht="20" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="D28" s="4"/>
@@ -4783,7 +5076,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:25" ht="20" customHeight="1">
+    <row r="29" spans="1:28" ht="20" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="D29" s="4"/>
@@ -4791,7 +5084,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:25" ht="20" customHeight="1">
+    <row r="30" spans="1:28" ht="20" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="D30" s="4"/>
@@ -4799,7 +5092,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:25" ht="20" customHeight="1">
+    <row r="31" spans="1:28" ht="20" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="D31" s="4"/>
@@ -4807,7 +5100,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:25" ht="20" customHeight="1">
+    <row r="32" spans="1:28" ht="20" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="D32" s="4"/>
